--- a/data/sysml2/result/AffectedElement.xlsx
+++ b/data/sysml2/result/AffectedElement.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,11 +494,7 @@
           <t>AffectedElement</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -520,11 +516,7 @@
           <t>AffectedElement</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -580,11 +572,7 @@
           <t>Collide</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -614,11 +602,7 @@
           <t>Collide</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -636,29 +620,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>in</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Explode</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>CollideCondition</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>ExplodeCondition</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -666,59 +642,38 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>in</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Spill</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>CollideCondition</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SpillCondition</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Spill</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>DamageCondition</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>PullotedCondition</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -726,49 +681,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Spill</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>DamageCondition</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>DetachedCondition</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>Casualty</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -782,19 +720,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>Casualty</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -808,20 +742,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>Explode</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ExplodeCondition</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -829,49 +763,41 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>ExplodeCondition</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>ExplodeCondition</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -881,18 +807,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>Spill</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>SpillCondition</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -902,20 +833,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>Spill</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>PullotedCondition</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -928,35 +859,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>Spill</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>DetachedCondition</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>SpillCondition</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -970,19 +902,15 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>SpillCondition</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -991,19 +919,15 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>PullotedCondition</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
@@ -1017,19 +941,15 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>PullotedCondition</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -1038,91 +958,54 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AffectedStates</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>DetachedCondition</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>DrivingState</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Collide</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>CollidedState</t>
-        </is>
-      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AffectedStates</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>DetachedCondition</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>CollidedState</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Explode</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>ExplodeState</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>item</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VehicleCargo</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleDeparture</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
@@ -1136,19 +1019,15 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>item</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>VehicleCargo</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleDeparture</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -1157,19 +1036,15 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>item</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VehicleComponents</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleExplosion</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -1183,19 +1058,15 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>item</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VehicleComponents</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleExplosion</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
@@ -1204,19 +1075,15 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>item</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>VehiclePassengers</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleMotion</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
@@ -1230,19 +1097,15 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>item</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>VehiclePassengers</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleMotion</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
@@ -1251,19 +1114,15 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>part Sub</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>324</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleSpeedChange</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
@@ -1277,19 +1136,15 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>part Sub</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>324</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleSpeedChange</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
@@ -1298,27 +1153,19 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>VehicleCargo</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>VehicleCargo</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1328,52 +1175,36 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>VehicleCargo</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>VehicleCargo</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>VehiclePassengers</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>VehiclePassengers</t>
-        </is>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1383,103 +1214,100 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>VehiclePassengers</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>VehiclePassengers</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>state</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>VehicleComponents</t>
+          <t>AffectedStates</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>VehicleComponents</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>DrivingState</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Collide</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>CollidedState</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>state</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>VehicleComponents</t>
+          <t>AffectedStates</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>VehicleComponents</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>324</t>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>CollidedState</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Explode</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ExplodeState</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>item</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>VehicleCargo</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1489,44 +1317,36 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>item</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>VehicleCargo</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>item</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>VehicleComponents</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1536,44 +1356,36 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>item</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>VehicleComponents</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>item</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>VehiclePassengers</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1583,44 +1395,40 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>item</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>VehiclePassengers</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>324</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>AffectedElement</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1630,37 +1438,41 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>324</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>AffectedElement</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>VehicleCargo</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>VehicleCargo</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
@@ -1677,16 +1489,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>VehicleCargo</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>VehicleCargo</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
@@ -1698,18 +1514,18 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>VehiclePassengers</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>AffectedElement</t>
+          <t>VehiclePassengers</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -1728,18 +1544,18 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>VehiclePassengers</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>AffectedElement</t>
+          <t>VehiclePassengers</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -1753,26 +1569,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>VehicleType</t>
+          <t>VehicleComponents</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>VehicleComponents</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
           <t>324</t>
@@ -1787,26 +1599,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>VehicleType</t>
+          <t>VehicleComponents</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>VehicleComponents</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
           <t>324</t>
@@ -1816,27 +1624,23 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CombustionCondition</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -1846,52 +1650,44 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CombustionCondition</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -1901,52 +1697,44 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DrivingDirection</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -1956,51 +1744,39 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DrivingDirection</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>VehiclePosition</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
           <t>324</t>
@@ -2015,26 +1791,18 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>VehiclePosition</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
           <t>324</t>
@@ -2044,26 +1812,18 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>VehicleSpeed</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
           <t>324</t>
@@ -2078,26 +1838,18 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>VehicleSpeed</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
           <t>324</t>
@@ -2107,27 +1859,23 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DamageCondition</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2137,27 +1885,464 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DamageCondition</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>VehicleType</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>VehicleType</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CombustionCondition</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>Bool</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>CombustionCondition</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SpillCondition</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SpillCondition</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>DrivingDirection</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Enum</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>"正向"</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>DrivingDirection</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Enum</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>"正向"</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>VehiclePosition</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>VehiclePosition</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>VehicleSpeed</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>VehicleSpeed</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>DamageCondition</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>DamageCondition</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
